--- a/Results/TinyMPC CDC benchmarks/Rocket Landing/Rocket Landing STM32 TinyMPC.xlsx
+++ b/Results/TinyMPC CDC benchmarks/Rocket Landing/Rocket Landing STM32 TinyMPC.xlsx
@@ -9,6 +9,9 @@
     <sheet state="visible" name="horizon 16" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="horizon 32" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="horizon 64" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="horizon 128" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="horizon 192" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="horizon 256" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="48">
   <si>
     <t>iterations</t>
   </si>
@@ -64,6 +67,18 @@
   </si>
   <si>
     <t>ERAM:          0 GB        16 MB      0.00%</t>
+  </si>
+  <si>
+    <t>ITCM:      320844 B       512 KB     61.20%</t>
+  </si>
+  <si>
+    <t>FLASH:        382 KB      7936 KB      4.81%</t>
+  </si>
+  <si>
+    <t>teensy_size:   FLASH: code:323512, data:59340, headers:8312   free for files:7735300</t>
+  </si>
+  <si>
+    <t>teensy_size:    RAM1: variables:67424, code:320840, padding:6840   free for local variables:129184</t>
   </si>
   <si>
     <t>teensy_size:   FLASH: code:323896, data:59340, headers:8952   free for files:7734276</t>
@@ -122,6 +137,33 @@
   <si>
     <t>ITCM:      318668 B       512 KB     60.78%</t>
   </si>
+  <si>
+    <t>teensy_size:   FLASH: code:321784, data:59340, headers:9016   free for files:7736324</t>
+  </si>
+  <si>
+    <t>teensy_size:    RAM1: variables:67424, code:319112, padding:8568   free for local variables:129184</t>
+  </si>
+  <si>
+    <t>ITCM:      319116 B       512 KB     60.87%</t>
+  </si>
+  <si>
+    <t>teensy_size:   FLASH: code:321528, data:59340, headers:8248   free for files:7737348</t>
+  </si>
+  <si>
+    <t>teensy_size:    RAM1: variables:67424, code:318856, padding:8824   free for local variables:129184</t>
+  </si>
+  <si>
+    <t>ITCM:      318860 B       512 KB     60.82%</t>
+  </si>
+  <si>
+    <t>teensy_size:   FLASH: code:321592, data:59340, headers:9208   free for files:7736324</t>
+  </si>
+  <si>
+    <t>teensy_size:    RAM1: variables:67424, code:318920, padding:8760   free for local variables:129184</t>
+  </si>
+  <si>
+    <t>ITCM:      318924 B       512 KB     60.83%</t>
+  </si>
 </sst>
 </file>
 
@@ -130,7 +172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m d"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -146,6 +188,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -238,6 +284,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -268,6 +317,18 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -653,6 +714,9 @@
       <c r="B16" s="9">
         <v>48.0</v>
       </c>
+      <c r="C16" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="9">
@@ -661,6 +725,9 @@
       <c r="B17" s="9">
         <v>148.0</v>
       </c>
+      <c r="C17" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="9">
@@ -669,6 +736,9 @@
       <c r="B18" s="9">
         <v>51.0</v>
       </c>
+      <c r="C18" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="9">
@@ -677,6 +747,9 @@
       <c r="B19" s="9">
         <v>122.0</v>
       </c>
+      <c r="C19" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="9">
@@ -685,6 +758,9 @@
       <c r="B20" s="9">
         <v>82.0</v>
       </c>
+      <c r="C20" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="9">
@@ -693,6 +769,9 @@
       <c r="B21" s="9">
         <v>122.0</v>
       </c>
+      <c r="C21" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="9">
@@ -701,6 +780,9 @@
       <c r="B22" s="9">
         <v>97.0</v>
       </c>
+      <c r="C22" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="9">
@@ -709,6 +791,9 @@
       <c r="B23" s="9">
         <v>82.0</v>
       </c>
+      <c r="C23" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="9">
@@ -717,6 +802,9 @@
       <c r="B24" s="9">
         <v>141.0</v>
       </c>
+      <c r="C24" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="9">
@@ -724,6 +812,9 @@
       </c>
       <c r="B25" s="9">
         <v>59.0</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -3015,7 +3106,7 @@
         <v>2590.0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -3026,7 +3117,7 @@
         <v>2130.0</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -3059,7 +3150,7 @@
         <v>981.0</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -3092,7 +3183,7 @@
         <v>468.0</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -5501,7 +5592,7 @@
         <v>2761.0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -5512,7 +5603,7 @@
         <v>2843.0</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -5545,7 +5636,7 @@
         <v>2130.0</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -5578,7 +5669,7 @@
         <v>1996.0</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
@@ -7987,7 +8078,7 @@
         <v>4449.0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -7998,7 +8089,7 @@
         <v>5400.0</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -8031,7 +8122,7 @@
         <v>4665.0</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -8064,7 +8155,7 @@
         <v>3611.0</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -10473,7 +10564,7 @@
         <v>14747.0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -10484,7 +10575,7 @@
         <v>12417.0</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -10517,7 +10608,7 @@
         <v>13876.0</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -10550,7 +10641,7 @@
         <v>15150.0</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -12959,7 +13050,7 @@
         <v>25246.0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -12970,7 +13061,7 @@
         <v>49174.0</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -13003,7 +13094,7 @@
         <v>40547.0</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -13036,7 +13127,7 @@
         <v>42758.0</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -15376,6 +15467,7464 @@
       </c>
       <c r="B303" s="9">
         <v>3687.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B3" s="11">
+        <v>184946.0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B4" s="11">
+        <v>185016.0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B5" s="11">
+        <v>184975.0</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B6" s="11">
+        <v>184941.0</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11">
+        <v>328.0</v>
+      </c>
+      <c r="B7" s="11">
+        <v>121274.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B8" s="11">
+        <v>184852.0</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B9" s="11">
+        <v>184785.0</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B10" s="11">
+        <v>184721.0</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B11" s="11">
+        <v>184681.0</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B12" s="11">
+        <v>184636.0</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B13" s="11">
+        <v>184582.0</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B14" s="11">
+        <v>184535.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B15" s="11">
+        <v>184488.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B16" s="11">
+        <v>184443.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B17" s="11">
+        <v>184388.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11">
+        <v>428.0</v>
+      </c>
+      <c r="B18" s="11">
+        <v>157783.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B19" s="11">
+        <v>184293.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11">
+        <v>377.0</v>
+      </c>
+      <c r="B20" s="11">
+        <v>138910.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11">
+        <v>427.0</v>
+      </c>
+      <c r="B21" s="11">
+        <v>157288.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B22" s="11">
+        <v>184136.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B23" s="11">
+        <v>184089.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B24" s="11">
+        <v>184039.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B25" s="11">
+        <v>183991.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B26" s="11">
+        <v>183947.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B27" s="11">
+        <v>183901.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B28" s="11">
+        <v>183855.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B29" s="11">
+        <v>183804.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B30" s="11">
+        <v>183743.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B31" s="11">
+        <v>183677.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B32" s="11">
+        <v>183632.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B33" s="11">
+        <v>183584.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B34" s="11">
+        <v>183546.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B35" s="11">
+        <v>183499.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B36" s="11">
+        <v>183502.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B37" s="11">
+        <v>183497.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B38" s="11">
+        <v>183499.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B39" s="11">
+        <v>183501.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="11">
+        <v>458.0</v>
+      </c>
+      <c r="B40" s="11">
+        <v>168086.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="11">
+        <v>410.0</v>
+      </c>
+      <c r="B41" s="11">
+        <v>150478.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="11">
+        <v>369.0</v>
+      </c>
+      <c r="B42" s="11">
+        <v>135450.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="11">
+        <v>471.0</v>
+      </c>
+      <c r="B43" s="11">
+        <v>172897.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B44" s="11">
+        <v>183563.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B45" s="11">
+        <v>183556.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="11">
+        <v>432.0</v>
+      </c>
+      <c r="B46" s="11">
+        <v>158590.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B47" s="11">
+        <v>183568.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B48" s="11">
+        <v>183570.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B49" s="11">
+        <v>183565.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B50" s="11">
+        <v>183622.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B51" s="11">
+        <v>183612.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="11">
+        <v>467.0</v>
+      </c>
+      <c r="B52" s="11">
+        <v>171490.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B53" s="11">
+        <v>183623.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B54" s="11">
+        <v>183623.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B55" s="11">
+        <v>183650.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B56" s="11">
+        <v>183652.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B57" s="11">
+        <v>183583.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B58" s="11">
+        <v>183590.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B59" s="11">
+        <v>183590.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B60" s="11">
+        <v>183537.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="11">
+        <v>446.0</v>
+      </c>
+      <c r="B61" s="11">
+        <v>163720.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B62" s="11">
+        <v>183541.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B63" s="11">
+        <v>183515.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B64" s="11">
+        <v>183511.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B65" s="11">
+        <v>183500.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B66" s="11">
+        <v>183513.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B67" s="11">
+        <v>183514.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B68" s="11">
+        <v>183514.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B69" s="11">
+        <v>183512.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="11">
+        <v>496.0</v>
+      </c>
+      <c r="B70" s="11">
+        <v>182045.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B71" s="11">
+        <v>183518.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="11">
+        <v>417.0</v>
+      </c>
+      <c r="B72" s="11">
+        <v>153053.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B73" s="11">
+        <v>183522.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="11">
+        <v>486.0</v>
+      </c>
+      <c r="B74" s="11">
+        <v>178392.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B75" s="11">
+        <v>183530.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B76" s="11">
+        <v>183527.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B77" s="11">
+        <v>183533.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B78" s="11">
+        <v>183538.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B79" s="11">
+        <v>183536.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="11">
+        <v>496.0</v>
+      </c>
+      <c r="B80" s="11">
+        <v>182064.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="11">
+        <v>492.0</v>
+      </c>
+      <c r="B81" s="11">
+        <v>180602.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="11">
+        <v>410.0</v>
+      </c>
+      <c r="B82" s="11">
+        <v>150496.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B83" s="11">
+        <v>183541.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B84" s="11">
+        <v>183543.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="11">
+        <v>427.0</v>
+      </c>
+      <c r="B85" s="11">
+        <v>156747.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B86" s="11">
+        <v>183546.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="11">
+        <v>492.0</v>
+      </c>
+      <c r="B87" s="11">
+        <v>180608.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B88" s="11">
+        <v>183550.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="11">
+        <v>336.0</v>
+      </c>
+      <c r="B89" s="11">
+        <v>123335.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="11">
+        <v>406.0</v>
+      </c>
+      <c r="B90" s="11">
+        <v>149034.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="11">
+        <v>406.0</v>
+      </c>
+      <c r="B91" s="11">
+        <v>149035.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="11">
+        <v>345.0</v>
+      </c>
+      <c r="B92" s="11">
+        <v>126644.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="11">
+        <v>422.0</v>
+      </c>
+      <c r="B93" s="11">
+        <v>154916.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="11">
+        <v>397.0</v>
+      </c>
+      <c r="B94" s="11">
+        <v>145734.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="11">
+        <v>480.0</v>
+      </c>
+      <c r="B95" s="11">
+        <v>176209.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="11">
+        <v>491.0</v>
+      </c>
+      <c r="B96" s="11">
+        <v>180250.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="11">
+        <v>414.0</v>
+      </c>
+      <c r="B97" s="11">
+        <v>151981.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="11">
+        <v>404.0</v>
+      </c>
+      <c r="B98" s="11">
+        <v>148310.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="11">
+        <v>469.0</v>
+      </c>
+      <c r="B99" s="11">
+        <v>172176.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="11">
+        <v>432.0</v>
+      </c>
+      <c r="B100" s="11">
+        <v>158592.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="11">
+        <v>397.0</v>
+      </c>
+      <c r="B101" s="11">
+        <v>145746.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="11">
+        <v>381.0</v>
+      </c>
+      <c r="B102" s="11">
+        <v>139869.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="11">
+        <v>396.0</v>
+      </c>
+      <c r="B103" s="11">
+        <v>145377.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="11">
+        <v>400.0</v>
+      </c>
+      <c r="B104" s="11">
+        <v>146845.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="11">
+        <v>362.0</v>
+      </c>
+      <c r="B105" s="11">
+        <v>132893.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="11">
+        <v>340.0</v>
+      </c>
+      <c r="B106" s="11">
+        <v>124814.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="11">
+        <v>357.0</v>
+      </c>
+      <c r="B107" s="11">
+        <v>131054.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="11">
+        <v>396.0</v>
+      </c>
+      <c r="B108" s="11">
+        <v>145368.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="11">
+        <v>397.0</v>
+      </c>
+      <c r="B109" s="11">
+        <v>145719.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="11">
+        <v>357.0</v>
+      </c>
+      <c r="B110" s="11">
+        <v>131029.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="11">
+        <v>295.0</v>
+      </c>
+      <c r="B111" s="11">
+        <v>108272.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="11">
+        <v>370.0</v>
+      </c>
+      <c r="B112" s="11">
+        <v>135802.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="11">
+        <v>299.0</v>
+      </c>
+      <c r="B113" s="11">
+        <v>109741.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="11">
+        <v>363.0</v>
+      </c>
+      <c r="B114" s="11">
+        <v>133235.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="11">
+        <v>420.0</v>
+      </c>
+      <c r="B115" s="11">
+        <v>154160.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="11">
+        <v>374.0</v>
+      </c>
+      <c r="B116" s="11">
+        <v>137274.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="11">
+        <v>320.0</v>
+      </c>
+      <c r="B117" s="11">
+        <v>117456.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="11">
+        <v>333.0</v>
+      </c>
+      <c r="B118" s="11">
+        <v>122226.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="11">
+        <v>336.0</v>
+      </c>
+      <c r="B119" s="11">
+        <v>123328.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="11">
+        <v>336.0</v>
+      </c>
+      <c r="B120" s="11">
+        <v>123329.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="11">
+        <v>314.0</v>
+      </c>
+      <c r="B121" s="11">
+        <v>115254.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="11">
+        <v>353.0</v>
+      </c>
+      <c r="B122" s="11">
+        <v>129572.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="11">
+        <v>321.0</v>
+      </c>
+      <c r="B123" s="11">
+        <v>117824.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="11">
+        <v>376.0</v>
+      </c>
+      <c r="B124" s="11">
+        <v>138015.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="11">
+        <v>437.0</v>
+      </c>
+      <c r="B125" s="11">
+        <v>160414.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="11">
+        <v>405.0</v>
+      </c>
+      <c r="B126" s="11">
+        <v>148663.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B127" s="11">
+        <v>183543.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B128" s="11">
+        <v>183543.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="11">
+        <v>379.0</v>
+      </c>
+      <c r="B129" s="11">
+        <v>139120.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B130" s="11">
+        <v>183546.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="11">
+        <v>435.0</v>
+      </c>
+      <c r="B131" s="11">
+        <v>159678.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="11">
+        <v>345.0</v>
+      </c>
+      <c r="B132" s="11">
+        <v>126639.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="11">
+        <v>336.0</v>
+      </c>
+      <c r="B133" s="11">
+        <v>123336.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B134" s="11">
+        <v>183547.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B135" s="11">
+        <v>183548.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="11">
+        <v>439.0</v>
+      </c>
+      <c r="B136" s="11">
+        <v>161154.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="11">
+        <v>345.0</v>
+      </c>
+      <c r="B137" s="11">
+        <v>126642.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="11">
+        <v>357.0</v>
+      </c>
+      <c r="B138" s="11">
+        <v>131048.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="11">
+        <v>341.0</v>
+      </c>
+      <c r="B139" s="11">
+        <v>125175.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B140" s="11">
+        <v>183551.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B141" s="11">
+        <v>183552.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B142" s="11">
+        <v>183553.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="11">
+        <v>440.0</v>
+      </c>
+      <c r="B143" s="11">
+        <v>161521.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B144" s="11">
+        <v>183554.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B145" s="11">
+        <v>183560.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="11">
+        <v>354.0</v>
+      </c>
+      <c r="B146" s="11">
+        <v>129950.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="11">
+        <v>396.0</v>
+      </c>
+      <c r="B147" s="11">
+        <v>145370.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="11">
+        <v>343.0</v>
+      </c>
+      <c r="B148" s="11">
+        <v>125915.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="11">
+        <v>415.0</v>
+      </c>
+      <c r="B149" s="11">
+        <v>152345.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="11">
+        <v>347.0</v>
+      </c>
+      <c r="B150" s="11">
+        <v>127381.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="11">
+        <v>358.0</v>
+      </c>
+      <c r="B151" s="11">
+        <v>131418.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B152" s="11">
+        <v>183555.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B153" s="11">
+        <v>183554.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="11">
+        <v>461.0</v>
+      </c>
+      <c r="B154" s="11">
+        <v>169226.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="11">
+        <v>408.0</v>
+      </c>
+      <c r="B155" s="11">
+        <v>149759.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B156" s="11">
+        <v>183519.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="11">
+        <v>384.0</v>
+      </c>
+      <c r="B157" s="11">
+        <v>140896.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="11">
+        <v>378.0</v>
+      </c>
+      <c r="B158" s="11">
+        <v>138694.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="11">
+        <v>363.0</v>
+      </c>
+      <c r="B159" s="11">
+        <v>133188.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="11">
+        <v>436.0</v>
+      </c>
+      <c r="B160" s="11">
+        <v>159977.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="11">
+        <v>435.0</v>
+      </c>
+      <c r="B161" s="11">
+        <v>159612.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="11">
+        <v>337.0</v>
+      </c>
+      <c r="B162" s="11">
+        <v>123652.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="11">
+        <v>481.0</v>
+      </c>
+      <c r="B163" s="11">
+        <v>176492.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B164" s="11">
+        <v>183465.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B165" s="11">
+        <v>183471.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B166" s="11">
+        <v>183466.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="11">
+        <v>456.0</v>
+      </c>
+      <c r="B167" s="11">
+        <v>167321.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B168" s="11">
+        <v>183473.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B169" s="11">
+        <v>183473.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="11">
+        <v>454.0</v>
+      </c>
+      <c r="B170" s="11">
+        <v>166589.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="11">
+        <v>384.0</v>
+      </c>
+      <c r="B171" s="11">
+        <v>140903.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="11">
+        <v>379.0</v>
+      </c>
+      <c r="B172" s="11">
+        <v>139068.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="11">
+        <v>322.0</v>
+      </c>
+      <c r="B173" s="11">
+        <v>118152.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="11">
+        <v>402.0</v>
+      </c>
+      <c r="B174" s="11">
+        <v>147510.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="11">
+        <v>372.0</v>
+      </c>
+      <c r="B175" s="11">
+        <v>136503.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="11">
+        <v>345.0</v>
+      </c>
+      <c r="B176" s="11">
+        <v>126596.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="11">
+        <v>284.0</v>
+      </c>
+      <c r="B177" s="11">
+        <v>104221.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="11">
+        <v>392.0</v>
+      </c>
+      <c r="B178" s="11">
+        <v>143859.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="11">
+        <v>292.0</v>
+      </c>
+      <c r="B179" s="11">
+        <v>107161.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="B180" s="11">
+        <v>11740.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="11">
+        <v>67.0</v>
+      </c>
+      <c r="B181" s="11">
+        <v>24585.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="11">
+        <v>73.0</v>
+      </c>
+      <c r="B182" s="11">
+        <v>26787.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="11">
+        <v>37.0</v>
+      </c>
+      <c r="B183" s="11">
+        <v>13576.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="11">
+        <v>67.0</v>
+      </c>
+      <c r="B184" s="11">
+        <v>24586.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="11">
+        <v>79.0</v>
+      </c>
+      <c r="B185" s="11">
+        <v>28992.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="11">
+        <v>81.0</v>
+      </c>
+      <c r="B186" s="11">
+        <v>29726.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="11">
+        <v>34.0</v>
+      </c>
+      <c r="B187" s="11">
+        <v>12475.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="11">
+        <v>48.0</v>
+      </c>
+      <c r="B188" s="11">
+        <v>17614.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="11">
+        <v>47.0</v>
+      </c>
+      <c r="B189" s="11">
+        <v>17247.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="11">
+        <v>70.0</v>
+      </c>
+      <c r="B190" s="11">
+        <v>25690.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="11">
+        <v>35.0</v>
+      </c>
+      <c r="B191" s="11">
+        <v>12843.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="11">
+        <v>34.0</v>
+      </c>
+      <c r="B192" s="11">
+        <v>12476.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B193" s="11">
+        <v>9539.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="B194" s="11">
+        <v>8071.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="11">
+        <v>47.0</v>
+      </c>
+      <c r="B195" s="11">
+        <v>17249.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="11">
+        <v>47.0</v>
+      </c>
+      <c r="B196" s="11">
+        <v>17250.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="B197" s="11">
+        <v>3666.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="11">
+        <v>13.0</v>
+      </c>
+      <c r="B198" s="11">
+        <v>4768.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="B199" s="11">
+        <v>10275.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="B200" s="11">
+        <v>9173.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="11">
+        <v>35.0</v>
+      </c>
+      <c r="B201" s="11">
+        <v>12845.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="B202" s="11">
+        <v>6972.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="B203" s="11">
+        <v>8440.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="11">
+        <v>33.0</v>
+      </c>
+      <c r="B204" s="11">
+        <v>12111.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="11">
+        <v>54.0</v>
+      </c>
+      <c r="B205" s="11">
+        <v>19823.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="11">
+        <v>34.0</v>
+      </c>
+      <c r="B206" s="11">
+        <v>12479.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="11">
+        <v>37.0</v>
+      </c>
+      <c r="B207" s="11">
+        <v>13582.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="11">
+        <v>50.0</v>
+      </c>
+      <c r="B208" s="11">
+        <v>18355.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="B209" s="11">
+        <v>10277.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="11">
+        <v>44.0</v>
+      </c>
+      <c r="B210" s="11">
+        <v>16153.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="11">
+        <v>46.0</v>
+      </c>
+      <c r="B211" s="11">
+        <v>16888.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="11">
+        <v>45.0</v>
+      </c>
+      <c r="B212" s="11">
+        <v>16521.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="11">
+        <v>42.0</v>
+      </c>
+      <c r="B213" s="11">
+        <v>15419.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="B214" s="11">
+        <v>10645.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="B215" s="11">
+        <v>11748.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="11">
+        <v>42.0</v>
+      </c>
+      <c r="B216" s="11">
+        <v>15420.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="B217" s="11">
+        <v>8810.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B218" s="11">
+        <v>9544.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="B219" s="11">
+        <v>5872.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="11">
+        <v>18.0</v>
+      </c>
+      <c r="B220" s="11">
+        <v>6607.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="B221" s="11">
+        <v>10647.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="B222" s="11">
+        <v>11749.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B223" s="11">
+        <v>9546.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="B224" s="11">
+        <v>8811.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="B225" s="11">
+        <v>9179.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B226" s="11">
+        <v>9914.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="B227" s="11">
+        <v>10648.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B228" s="11">
+        <v>9914.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B229" s="11">
+        <v>9914.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="B230" s="11">
+        <v>11017.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="11">
+        <v>64.0</v>
+      </c>
+      <c r="B231" s="11">
+        <v>23507.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="B232" s="11">
+        <v>14691.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="B233" s="11">
+        <v>7344.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="11">
+        <v>33.0</v>
+      </c>
+      <c r="B234" s="11">
+        <v>12119.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B235" s="11">
+        <v>9548.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="B236" s="11">
+        <v>10283.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B237" s="11">
+        <v>9916.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B238" s="11">
+        <v>9916.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B239" s="11">
+        <v>9916.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="B240" s="11">
+        <v>14325.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="B241" s="11">
+        <v>8447.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B242" s="11">
+        <v>9917.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="11">
+        <v>31.0</v>
+      </c>
+      <c r="B243" s="11">
+        <v>11386.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="B244" s="11">
+        <v>10284.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B245" s="11">
+        <v>9550.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B246" s="11">
+        <v>9550.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B247" s="11">
+        <v>9918.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B248" s="11">
+        <v>9918.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="11">
+        <v>33.0</v>
+      </c>
+      <c r="B249" s="11">
+        <v>12123.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="B250" s="11">
+        <v>9183.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B251" s="11">
+        <v>9551.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B252" s="11">
+        <v>9919.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="11">
+        <v>37.0</v>
+      </c>
+      <c r="B253" s="11">
+        <v>13595.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="B254" s="11">
+        <v>8817.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B255" s="11">
+        <v>9551.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="11">
+        <v>54.0</v>
+      </c>
+      <c r="B256" s="11">
+        <v>19844.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="B257" s="11">
+        <v>7715.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B258" s="11">
+        <v>9553.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="11">
+        <v>51.0</v>
+      </c>
+      <c r="B259" s="11">
+        <v>18742.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="B260" s="11">
+        <v>8450.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="11">
+        <v>36.0</v>
+      </c>
+      <c r="B261" s="11">
+        <v>13229.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="B262" s="11">
+        <v>8818.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="B263" s="11">
+        <v>10288.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="B264" s="11">
+        <v>10656.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B265" s="11">
+        <v>9921.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B266" s="11">
+        <v>9921.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="B267" s="11">
+        <v>11759.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="11">
+        <v>49.0</v>
+      </c>
+      <c r="B268" s="11">
+        <v>18009.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="B269" s="11">
+        <v>11025.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="B270" s="11">
+        <v>8819.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="B271" s="11">
+        <v>9187.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="11">
+        <v>63.0</v>
+      </c>
+      <c r="B272" s="11">
+        <v>23158.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="B273" s="11">
+        <v>11025.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="11">
+        <v>49.0</v>
+      </c>
+      <c r="B274" s="11">
+        <v>18011.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="B275" s="11">
+        <v>5878.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B276" s="11">
+        <v>9556.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="11">
+        <v>31.0</v>
+      </c>
+      <c r="B277" s="11">
+        <v>11394.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B278" s="11">
+        <v>9556.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="11">
+        <v>48.0</v>
+      </c>
+      <c r="B279" s="11">
+        <v>17646.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="11">
+        <v>59.0</v>
+      </c>
+      <c r="B280" s="11">
+        <v>21690.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="11">
+        <v>45.0</v>
+      </c>
+      <c r="B281" s="11">
+        <v>16543.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="11">
+        <v>53.0</v>
+      </c>
+      <c r="B282" s="11">
+        <v>19485.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="B283" s="11">
+        <v>11027.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="B284" s="11">
+        <v>8086.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B285" s="11">
+        <v>9924.0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B286" s="11">
+        <v>9557.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="B287" s="11">
+        <v>11028.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="11">
+        <v>62.0</v>
+      </c>
+      <c r="B288" s="11">
+        <v>22797.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="B289" s="11">
+        <v>4041.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="B290" s="11">
+        <v>8822.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="B291" s="11">
+        <v>9190.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="B292" s="11">
+        <v>9191.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B293" s="11">
+        <v>9559.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="B294" s="11">
+        <v>7352.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="B295" s="11">
+        <v>7352.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="B296" s="11">
+        <v>11766.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="B297" s="11">
+        <v>14709.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="B298" s="11">
+        <v>11766.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="11">
+        <v>34.0</v>
+      </c>
+      <c r="B299" s="11">
+        <v>12502.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="11">
+        <v>88.0</v>
+      </c>
+      <c r="B300" s="11">
+        <v>32366.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="B301" s="11">
+        <v>4042.0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="B302" s="11">
+        <v>4410.0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="B303" s="11">
+        <v>6986.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B3" s="11">
+        <v>277427.0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B4" s="11">
+        <v>277472.0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B5" s="11">
+        <v>277417.0</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B6" s="11">
+        <v>277380.0</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B7" s="11">
+        <v>277335.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B8" s="11">
+        <v>277299.0</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B9" s="11">
+        <v>277250.0</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B10" s="11">
+        <v>277207.0</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B11" s="11">
+        <v>277168.0</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B12" s="11">
+        <v>277118.0</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B13" s="11">
+        <v>277071.0</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B14" s="11">
+        <v>277023.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B15" s="11">
+        <v>276977.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B16" s="11">
+        <v>276932.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B17" s="11">
+        <v>276879.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B18" s="11">
+        <v>276831.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B19" s="11">
+        <v>276785.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B20" s="11">
+        <v>276735.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B21" s="11">
+        <v>276685.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B22" s="11">
+        <v>276632.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B23" s="11">
+        <v>276582.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B24" s="11">
+        <v>276533.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B25" s="11">
+        <v>276486.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B26" s="11">
+        <v>276444.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B27" s="11">
+        <v>276400.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B28" s="11">
+        <v>276349.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B29" s="11">
+        <v>276307.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B30" s="11">
+        <v>276263.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B31" s="11">
+        <v>276219.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B32" s="11">
+        <v>276174.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B33" s="11">
+        <v>276127.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B34" s="11">
+        <v>276092.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B35" s="11">
+        <v>276042.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B36" s="11">
+        <v>276041.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B37" s="11">
+        <v>276042.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B38" s="11">
+        <v>276046.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B39" s="11">
+        <v>276046.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B40" s="11">
+        <v>276047.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B41" s="11">
+        <v>276049.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="11">
+        <v>359.0</v>
+      </c>
+      <c r="B42" s="11">
+        <v>198195.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B43" s="11">
+        <v>276046.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B44" s="11">
+        <v>276044.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B45" s="11">
+        <v>276028.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B46" s="11">
+        <v>276008.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B47" s="11">
+        <v>276008.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B48" s="11">
+        <v>276012.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B49" s="11">
+        <v>276013.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B50" s="11">
+        <v>276015.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B51" s="11">
+        <v>276014.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B52" s="11">
+        <v>276016.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B53" s="11">
+        <v>276020.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B54" s="11">
+        <v>276020.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B55" s="11">
+        <v>276019.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B56" s="11">
+        <v>276020.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B57" s="11">
+        <v>276023.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="11">
+        <v>457.0</v>
+      </c>
+      <c r="B58" s="11">
+        <v>252284.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B59" s="11">
+        <v>276030.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B60" s="11">
+        <v>276028.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B61" s="11">
+        <v>276037.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B62" s="11">
+        <v>276034.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B63" s="11">
+        <v>276035.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B64" s="11">
+        <v>276040.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B65" s="11">
+        <v>276039.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B66" s="11">
+        <v>276040.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B67" s="11">
+        <v>276043.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B68" s="11">
+        <v>276046.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B69" s="11">
+        <v>276045.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B70" s="11">
+        <v>276049.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B71" s="11">
+        <v>276051.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="11">
+        <v>458.0</v>
+      </c>
+      <c r="B72" s="11">
+        <v>252858.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B73" s="11">
+        <v>276053.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="11">
+        <v>434.0</v>
+      </c>
+      <c r="B74" s="11">
+        <v>239608.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="11">
+        <v>430.0</v>
+      </c>
+      <c r="B75" s="11">
+        <v>237401.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B76" s="11">
+        <v>276058.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B77" s="11">
+        <v>276060.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="11">
+        <v>480.0</v>
+      </c>
+      <c r="B78" s="11">
+        <v>265013.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B79" s="11">
+        <v>276063.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B80" s="11">
+        <v>276066.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="11">
+        <v>488.0</v>
+      </c>
+      <c r="B81" s="11">
+        <v>269433.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="11">
+        <v>424.0</v>
+      </c>
+      <c r="B82" s="11">
+        <v>234095.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B83" s="11">
+        <v>276067.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="11">
+        <v>477.0</v>
+      </c>
+      <c r="B84" s="11">
+        <v>263360.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="11">
+        <v>408.0</v>
+      </c>
+      <c r="B85" s="11">
+        <v>225265.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="11">
+        <v>496.0</v>
+      </c>
+      <c r="B86" s="11">
+        <v>273853.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="11">
+        <v>425.0</v>
+      </c>
+      <c r="B87" s="11">
+        <v>234650.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="11">
+        <v>462.0</v>
+      </c>
+      <c r="B88" s="11">
+        <v>255078.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="11">
+        <v>443.0</v>
+      </c>
+      <c r="B89" s="11">
+        <v>244588.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B90" s="11">
+        <v>276067.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="11">
+        <v>496.0</v>
+      </c>
+      <c r="B91" s="11">
+        <v>273846.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="11">
+        <v>326.0</v>
+      </c>
+      <c r="B92" s="11">
+        <v>179965.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="11">
+        <v>430.0</v>
+      </c>
+      <c r="B93" s="11">
+        <v>237363.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B94" s="11">
+        <v>276014.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="11">
+        <v>450.0</v>
+      </c>
+      <c r="B95" s="11">
+        <v>248405.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="11">
+        <v>388.0</v>
+      </c>
+      <c r="B96" s="11">
+        <v>214178.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="11">
+        <v>378.0</v>
+      </c>
+      <c r="B97" s="11">
+        <v>208660.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="11">
+        <v>327.0</v>
+      </c>
+      <c r="B98" s="11">
+        <v>180507.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="11">
+        <v>377.0</v>
+      </c>
+      <c r="B99" s="11">
+        <v>208109.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="11">
+        <v>394.0</v>
+      </c>
+      <c r="B100" s="11">
+        <v>217496.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="11">
+        <v>468.0</v>
+      </c>
+      <c r="B101" s="11">
+        <v>258347.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="11">
+        <v>422.0</v>
+      </c>
+      <c r="B102" s="11">
+        <v>232954.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="11">
+        <v>395.0</v>
+      </c>
+      <c r="B103" s="11">
+        <v>218049.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B104" s="11">
+        <v>276026.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="11">
+        <v>453.0</v>
+      </c>
+      <c r="B105" s="11">
+        <v>250069.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="11">
+        <v>414.0</v>
+      </c>
+      <c r="B106" s="11">
+        <v>228541.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="11">
+        <v>461.0</v>
+      </c>
+      <c r="B107" s="11">
+        <v>254488.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="11">
+        <v>430.0</v>
+      </c>
+      <c r="B108" s="11">
+        <v>237376.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B109" s="11">
+        <v>276028.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="11">
+        <v>385.0</v>
+      </c>
+      <c r="B110" s="11">
+        <v>212534.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="11">
+        <v>317.0</v>
+      </c>
+      <c r="B111" s="11">
+        <v>174994.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="11">
+        <v>379.0</v>
+      </c>
+      <c r="B112" s="11">
+        <v>209223.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="11">
+        <v>320.0</v>
+      </c>
+      <c r="B113" s="11">
+        <v>176664.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="11">
+        <v>374.0</v>
+      </c>
+      <c r="B114" s="11">
+        <v>206480.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B115" s="11">
+        <v>276058.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="11">
+        <v>435.0</v>
+      </c>
+      <c r="B116" s="11">
+        <v>240167.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="11">
+        <v>349.0</v>
+      </c>
+      <c r="B117" s="11">
+        <v>192685.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="11">
+        <v>352.0</v>
+      </c>
+      <c r="B118" s="11">
+        <v>194345.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="11">
+        <v>352.0</v>
+      </c>
+      <c r="B119" s="11">
+        <v>194348.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="11">
+        <v>346.0</v>
+      </c>
+      <c r="B120" s="11">
+        <v>191038.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="11">
+        <v>326.0</v>
+      </c>
+      <c r="B121" s="11">
+        <v>179997.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="11">
+        <v>365.0</v>
+      </c>
+      <c r="B122" s="11">
+        <v>201535.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="11">
+        <v>330.0</v>
+      </c>
+      <c r="B123" s="11">
+        <v>182212.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="11">
+        <v>356.0</v>
+      </c>
+      <c r="B124" s="11">
+        <v>196572.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="11">
+        <v>358.0</v>
+      </c>
+      <c r="B125" s="11">
+        <v>197680.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="11">
+        <v>339.0</v>
+      </c>
+      <c r="B126" s="11">
+        <v>187189.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="11">
+        <v>423.0</v>
+      </c>
+      <c r="B127" s="11">
+        <v>233579.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B128" s="11">
+        <v>276111.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B129" s="11">
+        <v>276116.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="11">
+        <v>464.0</v>
+      </c>
+      <c r="B130" s="11">
+        <v>256232.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="11">
+        <v>457.0</v>
+      </c>
+      <c r="B131" s="11">
+        <v>252369.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="11">
+        <v>360.0</v>
+      </c>
+      <c r="B132" s="11">
+        <v>198803.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B133" s="11">
+        <v>276132.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="11">
+        <v>437.0</v>
+      </c>
+      <c r="B134" s="11">
+        <v>241336.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="11">
+        <v>491.0</v>
+      </c>
+      <c r="B135" s="11">
+        <v>271162.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B136" s="11">
+        <v>276144.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B137" s="11">
+        <v>276149.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="11">
+        <v>413.0</v>
+      </c>
+      <c r="B138" s="11">
+        <v>228095.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="11">
+        <v>368.0</v>
+      </c>
+      <c r="B139" s="11">
+        <v>203246.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B140" s="11">
+        <v>276164.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B141" s="11">
+        <v>276168.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="11">
+        <v>453.0</v>
+      </c>
+      <c r="B142" s="11">
+        <v>250205.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="11">
+        <v>399.0</v>
+      </c>
+      <c r="B143" s="11">
+        <v>220384.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="11">
+        <v>470.0</v>
+      </c>
+      <c r="B144" s="11">
+        <v>259606.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="11">
+        <v>470.0</v>
+      </c>
+      <c r="B145" s="11">
+        <v>259611.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="11">
+        <v>333.0</v>
+      </c>
+      <c r="B146" s="11">
+        <v>183939.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="11">
+        <v>378.0</v>
+      </c>
+      <c r="B147" s="11">
+        <v>208802.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="11">
+        <v>333.0</v>
+      </c>
+      <c r="B148" s="11">
+        <v>183946.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="11">
+        <v>391.0</v>
+      </c>
+      <c r="B149" s="11">
+        <v>215989.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="11">
+        <v>337.0</v>
+      </c>
+      <c r="B150" s="11">
+        <v>186162.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="11">
+        <v>349.0</v>
+      </c>
+      <c r="B151" s="11">
+        <v>192794.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="11">
+        <v>475.0</v>
+      </c>
+      <c r="B152" s="11">
+        <v>262407.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B153" s="11">
+        <v>276229.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="11">
+        <v>444.0</v>
+      </c>
+      <c r="B154" s="11">
+        <v>245287.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="11">
+        <v>395.0</v>
+      </c>
+      <c r="B155" s="11">
+        <v>218222.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B156" s="11">
+        <v>276243.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="11">
+        <v>375.0</v>
+      </c>
+      <c r="B157" s="11">
+        <v>207177.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="11">
+        <v>371.0</v>
+      </c>
+      <c r="B158" s="11">
+        <v>204971.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="11">
+        <v>358.0</v>
+      </c>
+      <c r="B159" s="11">
+        <v>197792.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="11">
+        <v>428.0</v>
+      </c>
+      <c r="B160" s="11">
+        <v>236471.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="11">
+        <v>428.0</v>
+      </c>
+      <c r="B161" s="11">
+        <v>236475.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="11">
+        <v>336.0</v>
+      </c>
+      <c r="B162" s="11">
+        <v>185644.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="11">
+        <v>477.0</v>
+      </c>
+      <c r="B163" s="11">
+        <v>263556.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B164" s="11">
+        <v>276279.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B165" s="11">
+        <v>276281.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B166" s="11">
+        <v>276286.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="11">
+        <v>459.0</v>
+      </c>
+      <c r="B167" s="11">
+        <v>253626.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B168" s="11">
+        <v>276294.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B169" s="11">
+        <v>276299.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="11">
+        <v>459.0</v>
+      </c>
+      <c r="B170" s="11">
+        <v>253638.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="11">
+        <v>389.0</v>
+      </c>
+      <c r="B171" s="11">
+        <v>214959.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="11">
+        <v>384.0</v>
+      </c>
+      <c r="B172" s="11">
+        <v>212199.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="11">
+        <v>323.0</v>
+      </c>
+      <c r="B173" s="11">
+        <v>178492.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="11">
+        <v>408.0</v>
+      </c>
+      <c r="B174" s="11">
+        <v>225469.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="11">
+        <v>374.0</v>
+      </c>
+      <c r="B175" s="11">
+        <v>206683.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="11">
+        <v>350.0</v>
+      </c>
+      <c r="B176" s="11">
+        <v>193422.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="11">
+        <v>283.0</v>
+      </c>
+      <c r="B177" s="11">
+        <v>156396.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="11">
+        <v>396.0</v>
+      </c>
+      <c r="B178" s="11">
+        <v>218850.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="11">
+        <v>289.0</v>
+      </c>
+      <c r="B179" s="11">
+        <v>159716.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="11">
+        <v>18.0</v>
+      </c>
+      <c r="B180" s="11">
+        <v>9941.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="B181" s="11">
+        <v>12705.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="B182" s="11">
+        <v>17680.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="B183" s="11">
+        <v>17679.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="11">
+        <v>31.0</v>
+      </c>
+      <c r="B184" s="11">
+        <v>17127.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="B185" s="11">
+        <v>17680.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B186" s="11">
+        <v>14916.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B187" s="11">
+        <v>14364.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B188" s="11">
+        <v>14364.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="11">
+        <v>44.0</v>
+      </c>
+      <c r="B189" s="11">
+        <v>24314.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="11">
+        <v>67.0</v>
+      </c>
+      <c r="B190" s="11">
+        <v>37027.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B191" s="11">
+        <v>14918.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="B192" s="11">
+        <v>12153.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B193" s="11">
+        <v>14918.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="B194" s="11">
+        <v>15471.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="11">
+        <v>41.0</v>
+      </c>
+      <c r="B195" s="11">
+        <v>22658.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="11">
+        <v>46.0</v>
+      </c>
+      <c r="B196" s="11">
+        <v>25421.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="B197" s="11">
+        <v>11602.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B198" s="11">
+        <v>14366.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="B199" s="11">
+        <v>15472.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="B200" s="11">
+        <v>16577.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="11">
+        <v>36.0</v>
+      </c>
+      <c r="B201" s="11">
+        <v>19894.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="B202" s="11">
+        <v>13262.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B203" s="11">
+        <v>14367.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B204" s="11">
+        <v>14920.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="11">
+        <v>58.0</v>
+      </c>
+      <c r="B205" s="11">
+        <v>32058.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="B206" s="11">
+        <v>10497.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="B207" s="11">
+        <v>13815.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="11">
+        <v>53.0</v>
+      </c>
+      <c r="B208" s="11">
+        <v>29295.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B209" s="11">
+        <v>14921.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="B210" s="11">
+        <v>13263.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B211" s="11">
+        <v>14922.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="B212" s="11">
+        <v>15475.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="11">
+        <v>46.0</v>
+      </c>
+      <c r="B213" s="11">
+        <v>25427.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="B214" s="11">
+        <v>12157.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B215" s="11">
+        <v>14922.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="11">
+        <v>36.0</v>
+      </c>
+      <c r="B216" s="11">
+        <v>19899.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="B217" s="11">
+        <v>15475.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="B218" s="11">
+        <v>13816.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B219" s="11">
+        <v>14923.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B220" s="11">
+        <v>14923.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B221" s="11">
+        <v>14923.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="11">
+        <v>34.0</v>
+      </c>
+      <c r="B222" s="11">
+        <v>18794.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="B223" s="11">
+        <v>16030.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="B224" s="11">
+        <v>13265.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B225" s="11">
+        <v>14923.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B226" s="11">
+        <v>14924.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="B227" s="11">
+        <v>16030.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B228" s="11">
+        <v>14372.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B229" s="11">
+        <v>14371.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="B230" s="11">
+        <v>16584.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="11">
+        <v>64.0</v>
+      </c>
+      <c r="B231" s="11">
+        <v>35386.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="B232" s="11">
+        <v>22114.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="B233" s="11">
+        <v>10501.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="11">
+        <v>33.0</v>
+      </c>
+      <c r="B234" s="11">
+        <v>18244.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="B235" s="11">
+        <v>13819.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="B236" s="11">
+        <v>15479.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B237" s="11">
+        <v>14926.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B238" s="11">
+        <v>14926.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B239" s="11">
+        <v>14926.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="B240" s="11">
+        <v>21563.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="B241" s="11">
+        <v>12714.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B242" s="11">
+        <v>14927.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="11">
+        <v>31.0</v>
+      </c>
+      <c r="B243" s="11">
+        <v>17140.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="B244" s="11">
+        <v>15481.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="B245" s="11">
+        <v>13822.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B246" s="11">
+        <v>14374.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B247" s="11">
+        <v>14927.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B248" s="11">
+        <v>14927.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="11">
+        <v>33.0</v>
+      </c>
+      <c r="B249" s="11">
+        <v>18248.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="B250" s="11">
+        <v>13822.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B251" s="11">
+        <v>14375.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B252" s="11">
+        <v>14928.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="11">
+        <v>37.0</v>
+      </c>
+      <c r="B253" s="11">
+        <v>20460.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="B254" s="11">
+        <v>13269.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B255" s="11">
+        <v>14376.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="11">
+        <v>54.0</v>
+      </c>
+      <c r="B256" s="11">
+        <v>29866.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="B257" s="11">
+        <v>11611.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B258" s="11">
+        <v>14377.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="11">
+        <v>51.0</v>
+      </c>
+      <c r="B259" s="11">
+        <v>28207.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="B260" s="11">
+        <v>12717.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="11">
+        <v>36.0</v>
+      </c>
+      <c r="B261" s="11">
+        <v>19909.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="B262" s="11">
+        <v>13271.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="B263" s="11">
+        <v>15484.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="B264" s="11">
+        <v>15484.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B265" s="11">
+        <v>14931.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B266" s="11">
+        <v>14932.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="11">
+        <v>33.0</v>
+      </c>
+      <c r="B267" s="11">
+        <v>18251.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="11">
+        <v>49.0</v>
+      </c>
+      <c r="B268" s="11">
+        <v>27103.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="B269" s="11">
+        <v>16592.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="B270" s="11">
+        <v>12719.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="B271" s="11">
+        <v>13825.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="11">
+        <v>63.0</v>
+      </c>
+      <c r="B272" s="11">
+        <v>34851.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="B273" s="11">
+        <v>16592.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="11">
+        <v>49.0</v>
+      </c>
+      <c r="B274" s="11">
+        <v>27105.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="B275" s="11">
+        <v>8293.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B276" s="11">
+        <v>14379.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="11">
+        <v>31.0</v>
+      </c>
+      <c r="B277" s="11">
+        <v>17147.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B278" s="11">
+        <v>14934.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="11">
+        <v>48.0</v>
+      </c>
+      <c r="B279" s="11">
+        <v>26554.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="11">
+        <v>59.0</v>
+      </c>
+      <c r="B280" s="11">
+        <v>32641.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="11">
+        <v>44.0</v>
+      </c>
+      <c r="B281" s="11">
+        <v>24341.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="11">
+        <v>54.0</v>
+      </c>
+      <c r="B282" s="11">
+        <v>29874.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="B283" s="11">
+        <v>16595.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="B284" s="11">
+        <v>12168.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B285" s="11">
+        <v>14935.0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B286" s="11">
+        <v>14381.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="B287" s="11">
+        <v>16595.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="11">
+        <v>62.0</v>
+      </c>
+      <c r="B288" s="11">
+        <v>34304.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="B289" s="11">
+        <v>6081.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="B290" s="11">
+        <v>13275.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="B291" s="11">
+        <v>13829.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="B292" s="11">
+        <v>13829.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B293" s="11">
+        <v>14383.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="B294" s="11">
+        <v>11062.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="B295" s="11">
+        <v>11062.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="B296" s="11">
+        <v>17704.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="B297" s="11">
+        <v>22132.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="B298" s="11">
+        <v>17704.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="11">
+        <v>34.0</v>
+      </c>
+      <c r="B299" s="11">
+        <v>18811.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="11">
+        <v>88.0</v>
+      </c>
+      <c r="B300" s="11">
+        <v>48700.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="B301" s="11">
+        <v>6082.0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="B302" s="11">
+        <v>6636.0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="B303" s="11">
+        <v>10510.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B3" s="11">
+        <v>370150.0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B4" s="11">
+        <v>370203.0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B5" s="11">
+        <v>370145.0</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B6" s="11">
+        <v>370111.0</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B7" s="11">
+        <v>370065.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B8" s="11">
+        <v>370031.0</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B9" s="11">
+        <v>369979.0</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B10" s="11">
+        <v>369939.0</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B11" s="11">
+        <v>369897.0</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B12" s="11">
+        <v>369849.0</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B13" s="11">
+        <v>369799.0</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B14" s="11">
+        <v>369755.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B15" s="11">
+        <v>369708.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B16" s="11">
+        <v>369664.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B17" s="11">
+        <v>369609.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B18" s="11">
+        <v>369561.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B19" s="11">
+        <v>369516.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B20" s="11">
+        <v>369467.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B21" s="11">
+        <v>369415.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B22" s="11">
+        <v>369362.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B23" s="11">
+        <v>369312.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B24" s="11">
+        <v>369263.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B25" s="11">
+        <v>369214.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B26" s="11">
+        <v>369169.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B27" s="11">
+        <v>369122.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B28" s="11">
+        <v>369062.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B29" s="11">
+        <v>368990.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B30" s="11">
+        <v>368944.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B31" s="11">
+        <v>368901.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B32" s="11">
+        <v>368856.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B33" s="11">
+        <v>368809.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B34" s="11">
+        <v>368770.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B35" s="11">
+        <v>368714.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B36" s="11">
+        <v>368712.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B37" s="11">
+        <v>368713.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B38" s="11">
+        <v>368716.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B39" s="11">
+        <v>368719.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B40" s="11">
+        <v>368720.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B41" s="11">
+        <v>368722.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="11">
+        <v>383.0</v>
+      </c>
+      <c r="B42" s="11">
+        <v>282434.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B43" s="11">
+        <v>368725.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B44" s="11">
+        <v>368726.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B45" s="11">
+        <v>368727.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B46" s="11">
+        <v>368729.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B47" s="11">
+        <v>368730.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B48" s="11">
+        <v>368732.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B49" s="11">
+        <v>368752.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B50" s="11">
+        <v>368758.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B51" s="11">
+        <v>368761.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B52" s="11">
+        <v>368765.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B53" s="11">
+        <v>368772.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B54" s="11">
+        <v>368777.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B55" s="11">
+        <v>368780.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B56" s="11">
+        <v>368785.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B57" s="11">
+        <v>368789.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="11">
+        <v>488.0</v>
+      </c>
+      <c r="B58" s="11">
+        <v>359936.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B59" s="11">
+        <v>368805.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B60" s="11">
+        <v>368806.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B61" s="11">
+        <v>368815.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B62" s="11">
+        <v>368815.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B63" s="11">
+        <v>368823.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="11">
+        <v>477.0</v>
+      </c>
+      <c r="B64" s="11">
+        <v>351851.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B65" s="11">
+        <v>368831.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B66" s="11">
+        <v>368838.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B67" s="11">
+        <v>368845.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B68" s="11">
+        <v>368848.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B69" s="11">
+        <v>368852.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B70" s="11">
+        <v>368860.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B71" s="11">
+        <v>368865.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="11">
+        <v>412.0</v>
+      </c>
+      <c r="B72" s="11">
+        <v>303938.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B73" s="11">
+        <v>368876.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="11">
+        <v>405.0</v>
+      </c>
+      <c r="B74" s="11">
+        <v>298782.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="11">
+        <v>455.0</v>
+      </c>
+      <c r="B75" s="11">
+        <v>335675.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B76" s="11">
+        <v>368892.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B77" s="11">
+        <v>368899.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="11">
+        <v>427.0</v>
+      </c>
+      <c r="B78" s="11">
+        <v>315033.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B79" s="11">
+        <v>368910.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B80" s="11">
+        <v>368917.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="11">
+        <v>448.0</v>
+      </c>
+      <c r="B81" s="11">
+        <v>330544.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="11">
+        <v>389.0</v>
+      </c>
+      <c r="B82" s="11">
+        <v>287014.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B83" s="11">
+        <v>368935.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="11">
+        <v>494.0</v>
+      </c>
+      <c r="B84" s="11">
+        <v>364502.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="11">
+        <v>427.0</v>
+      </c>
+      <c r="B85" s="11">
+        <v>315068.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B86" s="11">
+        <v>368951.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="11">
+        <v>442.0</v>
+      </c>
+      <c r="B87" s="11">
+        <v>326145.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="11">
+        <v>481.0</v>
+      </c>
+      <c r="B88" s="11">
+        <v>354928.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="11">
+        <v>375.0</v>
+      </c>
+      <c r="B89" s="11">
+        <v>276712.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B90" s="11">
+        <v>368970.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B91" s="11">
+        <v>368974.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="11">
+        <v>316.0</v>
+      </c>
+      <c r="B92" s="11">
+        <v>233181.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="11">
+        <v>392.0</v>
+      </c>
+      <c r="B93" s="11">
+        <v>289270.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B94" s="11">
+        <v>368989.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="11">
+        <v>466.0</v>
+      </c>
+      <c r="B95" s="11">
+        <v>343889.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="11">
+        <v>391.0</v>
+      </c>
+      <c r="B96" s="11">
+        <v>288544.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="11">
+        <v>361.0</v>
+      </c>
+      <c r="B97" s="11">
+        <v>266406.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="11">
+        <v>330.0</v>
+      </c>
+      <c r="B98" s="11">
+        <v>243531.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="11">
+        <v>373.0</v>
+      </c>
+      <c r="B99" s="11">
+        <v>275270.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="11">
+        <v>372.0</v>
+      </c>
+      <c r="B100" s="11">
+        <v>274536.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="11">
+        <v>413.0</v>
+      </c>
+      <c r="B101" s="11">
+        <v>304799.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="11">
+        <v>379.0</v>
+      </c>
+      <c r="B102" s="11">
+        <v>279708.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="11">
+        <v>369.0</v>
+      </c>
+      <c r="B103" s="11">
+        <v>272332.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B104" s="11">
+        <v>369035.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B105" s="11">
+        <v>369040.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B106" s="11">
+        <v>369044.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="11">
+        <v>425.0</v>
+      </c>
+      <c r="B107" s="11">
+        <v>313679.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="11">
+        <v>393.0</v>
+      </c>
+      <c r="B108" s="11">
+        <v>290063.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B109" s="11">
+        <v>369058.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="11">
+        <v>394.0</v>
+      </c>
+      <c r="B110" s="11">
+        <v>290808.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="11">
+        <v>322.0</v>
+      </c>
+      <c r="B111" s="11">
+        <v>237666.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="11">
+        <v>385.0</v>
+      </c>
+      <c r="B112" s="11">
+        <v>284171.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="11">
+        <v>325.0</v>
+      </c>
+      <c r="B113" s="11">
+        <v>239885.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="11">
+        <v>343.0</v>
+      </c>
+      <c r="B114" s="11">
+        <v>253175.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B115" s="11">
+        <v>369083.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="11">
+        <v>445.0</v>
+      </c>
+      <c r="B116" s="11">
+        <v>328475.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="11">
+        <v>357.0</v>
+      </c>
+      <c r="B117" s="11">
+        <v>263519.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="11">
+        <v>359.0</v>
+      </c>
+      <c r="B118" s="11">
+        <v>264999.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="11">
+        <v>357.0</v>
+      </c>
+      <c r="B119" s="11">
+        <v>263526.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="11">
+        <v>350.0</v>
+      </c>
+      <c r="B120" s="11">
+        <v>258361.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="11">
+        <v>330.0</v>
+      </c>
+      <c r="B121" s="11">
+        <v>243599.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="11">
+        <v>367.0</v>
+      </c>
+      <c r="B122" s="11">
+        <v>270917.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="11">
+        <v>332.0</v>
+      </c>
+      <c r="B123" s="11">
+        <v>245082.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="11">
+        <v>354.0</v>
+      </c>
+      <c r="B124" s="11">
+        <v>261327.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="11">
+        <v>351.0</v>
+      </c>
+      <c r="B125" s="11">
+        <v>259114.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="11">
+        <v>333.0</v>
+      </c>
+      <c r="B126" s="11">
+        <v>245829.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="11">
+        <v>410.0</v>
+      </c>
+      <c r="B127" s="11">
+        <v>302679.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B128" s="11">
+        <v>369140.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B129" s="11">
+        <v>369143.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="11">
+        <v>451.0</v>
+      </c>
+      <c r="B130" s="11">
+        <v>332960.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B131" s="11">
+        <v>369151.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="11">
+        <v>373.0</v>
+      </c>
+      <c r="B132" s="11">
+        <v>275378.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B133" s="11">
+        <v>369160.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="11">
+        <v>428.0</v>
+      </c>
+      <c r="B134" s="11">
+        <v>315993.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="11">
+        <v>481.0</v>
+      </c>
+      <c r="B135" s="11">
+        <v>355127.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B136" s="11">
+        <v>369171.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B137" s="11">
+        <v>369176.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="11">
+        <v>416.0</v>
+      </c>
+      <c r="B138" s="11">
+        <v>307145.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="11">
+        <v>370.0</v>
+      </c>
+      <c r="B139" s="11">
+        <v>273185.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B140" s="11">
+        <v>369189.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B141" s="11">
+        <v>369192.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="11">
+        <v>450.0</v>
+      </c>
+      <c r="B142" s="11">
+        <v>332265.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="11">
+        <v>396.0</v>
+      </c>
+      <c r="B143" s="11">
+        <v>292395.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="11">
+        <v>468.0</v>
+      </c>
+      <c r="B144" s="11">
+        <v>345565.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="11">
+        <v>467.0</v>
+      </c>
+      <c r="B145" s="11">
+        <v>344830.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="11">
+        <v>333.0</v>
+      </c>
+      <c r="B146" s="11">
+        <v>245884.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="11">
+        <v>377.0</v>
+      </c>
+      <c r="B147" s="11">
+        <v>278378.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="11">
+        <v>333.0</v>
+      </c>
+      <c r="B148" s="11">
+        <v>245891.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="11">
+        <v>391.0</v>
+      </c>
+      <c r="B149" s="11">
+        <v>288723.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="11">
+        <v>336.0</v>
+      </c>
+      <c r="B150" s="11">
+        <v>248110.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="11">
+        <v>349.0</v>
+      </c>
+      <c r="B151" s="11">
+        <v>257715.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="11">
+        <v>474.0</v>
+      </c>
+      <c r="B152" s="11">
+        <v>350027.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B153" s="11">
+        <v>369243.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="11">
+        <v>444.0</v>
+      </c>
+      <c r="B154" s="11">
+        <v>327880.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="11">
+        <v>395.0</v>
+      </c>
+      <c r="B155" s="11">
+        <v>291697.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B156" s="11">
+        <v>369255.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="11">
+        <v>375.0</v>
+      </c>
+      <c r="B157" s="11">
+        <v>276933.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="11">
+        <v>372.0</v>
+      </c>
+      <c r="B158" s="11">
+        <v>274721.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="11">
+        <v>359.0</v>
+      </c>
+      <c r="B159" s="11">
+        <v>265122.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="11">
+        <v>429.0</v>
+      </c>
+      <c r="B160" s="11">
+        <v>316824.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="11">
+        <v>429.0</v>
+      </c>
+      <c r="B161" s="11">
+        <v>316827.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="11">
+        <v>336.0</v>
+      </c>
+      <c r="B162" s="11">
+        <v>248145.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="11">
+        <v>478.0</v>
+      </c>
+      <c r="B163" s="11">
+        <v>353025.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B164" s="11">
+        <v>369289.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B165" s="11">
+        <v>369293.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B166" s="11">
+        <v>369297.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="11">
+        <v>460.0</v>
+      </c>
+      <c r="B167" s="11">
+        <v>339745.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B168" s="11">
+        <v>369306.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="11">
+        <v>500.0</v>
+      </c>
+      <c r="B169" s="11">
+        <v>369309.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="11">
+        <v>461.0</v>
+      </c>
+      <c r="B170" s="11">
+        <v>340496.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="11">
+        <v>390.0</v>
+      </c>
+      <c r="B171" s="11">
+        <v>288057.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="11">
+        <v>385.0</v>
+      </c>
+      <c r="B172" s="11">
+        <v>284367.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="11">
+        <v>324.0</v>
+      </c>
+      <c r="B173" s="11">
+        <v>239313.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="11">
+        <v>410.0</v>
+      </c>
+      <c r="B174" s="11">
+        <v>302840.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="11">
+        <v>376.0</v>
+      </c>
+      <c r="B175" s="11">
+        <v>277729.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="11">
+        <v>350.0</v>
+      </c>
+      <c r="B176" s="11">
+        <v>258527.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="11">
+        <v>283.0</v>
+      </c>
+      <c r="B177" s="11">
+        <v>209037.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="11">
+        <v>397.0</v>
+      </c>
+      <c r="B178" s="11">
+        <v>293250.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="11">
+        <v>288.0</v>
+      </c>
+      <c r="B179" s="11">
+        <v>212735.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="11">
+        <v>18.0</v>
+      </c>
+      <c r="B180" s="11">
+        <v>13287.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="B181" s="11">
+        <v>16241.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="B182" s="11">
+        <v>22151.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="B183" s="11">
+        <v>22151.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="B184" s="11">
+        <v>22152.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="11">
+        <v>33.0</v>
+      </c>
+      <c r="B185" s="11">
+        <v>24367.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B186" s="11">
+        <v>19936.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B187" s="11">
+        <v>19936.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B188" s="11">
+        <v>19197.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="11">
+        <v>45.0</v>
+      </c>
+      <c r="B189" s="11">
+        <v>33234.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="11">
+        <v>66.0</v>
+      </c>
+      <c r="B190" s="11">
+        <v>48749.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B191" s="11">
+        <v>19936.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="B192" s="11">
+        <v>16242.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B193" s="11">
+        <v>19937.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="B194" s="11">
+        <v>20676.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="B195" s="11">
+        <v>29542.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="11">
+        <v>46.0</v>
+      </c>
+      <c r="B196" s="11">
+        <v>33975.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="B197" s="11">
+        <v>15504.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B198" s="11">
+        <v>19199.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="B199" s="11">
+        <v>20677.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="B200" s="11">
+        <v>22155.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="11">
+        <v>36.0</v>
+      </c>
+      <c r="B201" s="11">
+        <v>26588.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="B202" s="11">
+        <v>17722.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B203" s="11">
+        <v>19200.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B204" s="11">
+        <v>19939.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="11">
+        <v>58.0</v>
+      </c>
+      <c r="B205" s="11">
+        <v>42844.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="B206" s="11">
+        <v>14028.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="B207" s="11">
+        <v>18462.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="11">
+        <v>53.0</v>
+      </c>
+      <c r="B208" s="11">
+        <v>39151.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B209" s="11">
+        <v>19939.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="B210" s="11">
+        <v>17724.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B211" s="11">
+        <v>19940.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="B212" s="11">
+        <v>20679.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="11">
+        <v>46.0</v>
+      </c>
+      <c r="B213" s="11">
+        <v>33980.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="B214" s="11">
+        <v>16246.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B215" s="11">
+        <v>19941.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="11">
+        <v>36.0</v>
+      </c>
+      <c r="B216" s="11">
+        <v>26592.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B217" s="11">
+        <v>19942.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="B218" s="11">
+        <v>18464.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B219" s="11">
+        <v>19942.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B220" s="11">
+        <v>19942.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B221" s="11">
+        <v>19942.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="11">
+        <v>34.0</v>
+      </c>
+      <c r="B222" s="11">
+        <v>25115.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="B223" s="11">
+        <v>21420.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="B224" s="11">
+        <v>17725.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B225" s="11">
+        <v>19943.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B226" s="11">
+        <v>19943.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="B227" s="11">
+        <v>21421.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B228" s="11">
+        <v>19205.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B229" s="11">
+        <v>19204.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="B230" s="11">
+        <v>22160.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="11">
+        <v>64.0</v>
+      </c>
+      <c r="B231" s="11">
+        <v>47289.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="B232" s="11">
+        <v>29552.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="B233" s="11">
+        <v>14032.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="11">
+        <v>33.0</v>
+      </c>
+      <c r="B234" s="11">
+        <v>24379.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B235" s="11">
+        <v>19205.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="B236" s="11">
+        <v>20684.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B237" s="11">
+        <v>19945.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B238" s="11">
+        <v>19945.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B239" s="11">
+        <v>19945.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="11">
+        <v>39.0</v>
+      </c>
+      <c r="B240" s="11">
+        <v>28815.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="B241" s="11">
+        <v>16989.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B242" s="11">
+        <v>19946.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="11">
+        <v>31.0</v>
+      </c>
+      <c r="B243" s="11">
+        <v>22902.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="B244" s="11">
+        <v>20685.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B245" s="11">
+        <v>19207.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B246" s="11">
+        <v>19207.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B247" s="11">
+        <v>19947.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B248" s="11">
+        <v>19947.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="11">
+        <v>33.0</v>
+      </c>
+      <c r="B249" s="11">
+        <v>24382.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="B250" s="11">
+        <v>18468.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B251" s="11">
+        <v>19208.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B252" s="11">
+        <v>19947.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="11">
+        <v>37.0</v>
+      </c>
+      <c r="B253" s="11">
+        <v>27339.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="B254" s="11">
+        <v>17731.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B255" s="11">
+        <v>19209.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="11">
+        <v>54.0</v>
+      </c>
+      <c r="B256" s="11">
+        <v>39907.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="B257" s="11">
+        <v>15513.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B258" s="11">
+        <v>19209.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="11">
+        <v>51.0</v>
+      </c>
+      <c r="B259" s="11">
+        <v>37690.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="B260" s="11">
+        <v>16992.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="11">
+        <v>36.0</v>
+      </c>
+      <c r="B261" s="11">
+        <v>26603.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="B262" s="11">
+        <v>17731.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="B263" s="11">
+        <v>20689.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="B264" s="11">
+        <v>21429.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B265" s="11">
+        <v>19950.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B266" s="11">
+        <v>19950.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="B267" s="11">
+        <v>23647.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="11">
+        <v>49.0</v>
+      </c>
+      <c r="B268" s="11">
+        <v>36215.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="B269" s="11">
+        <v>22168.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="B270" s="11">
+        <v>17733.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="B271" s="11">
+        <v>18473.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="11">
+        <v>63.0</v>
+      </c>
+      <c r="B272" s="11">
+        <v>46567.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="B273" s="11">
+        <v>22169.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="11">
+        <v>49.0</v>
+      </c>
+      <c r="B274" s="11">
+        <v>36217.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="B275" s="11">
+        <v>11080.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B276" s="11">
+        <v>19212.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="11">
+        <v>31.0</v>
+      </c>
+      <c r="B277" s="11">
+        <v>22909.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B278" s="11">
+        <v>19952.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="11">
+        <v>48.0</v>
+      </c>
+      <c r="B279" s="11">
+        <v>35479.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="11">
+        <v>59.0</v>
+      </c>
+      <c r="B280" s="11">
+        <v>43612.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="11">
+        <v>45.0</v>
+      </c>
+      <c r="B281" s="11">
+        <v>33262.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="11">
+        <v>53.0</v>
+      </c>
+      <c r="B282" s="11">
+        <v>39177.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="B283" s="11">
+        <v>22172.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="B284" s="11">
+        <v>16257.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="B285" s="11">
+        <v>19953.0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B286" s="11">
+        <v>19214.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="B287" s="11">
+        <v>22172.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="11">
+        <v>62.0</v>
+      </c>
+      <c r="B288" s="11">
+        <v>45834.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="B289" s="11">
+        <v>8123.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="B290" s="11">
+        <v>17736.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="B291" s="11">
+        <v>18476.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="B292" s="11">
+        <v>18476.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="B293" s="11">
+        <v>19216.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="B294" s="11">
+        <v>14779.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="B295" s="11">
+        <v>14779.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="B296" s="11">
+        <v>23653.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="B297" s="11">
+        <v>29569.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="B298" s="11">
+        <v>23653.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="11">
+        <v>34.0</v>
+      </c>
+      <c r="B299" s="11">
+        <v>25133.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="11">
+        <v>88.0</v>
+      </c>
+      <c r="B300" s="11">
+        <v>65066.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="B301" s="11">
+        <v>8124.0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="B302" s="11">
+        <v>8864.0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="B303" s="11">
+        <v>14041.0</v>
       </c>
     </row>
   </sheetData>
